--- a/document/template_laporan_beasiswa.xlsx
+++ b/document/template_laporan_beasiswa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8445"/>
@@ -16,64 +16,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Jenis Beasiswa</t>
-  </si>
-  <si>
-    <t>Nama Pendaftar</t>
-  </si>
-  <si>
-    <t>Jurusan</t>
-  </si>
-  <si>
-    <t>Jenjang</t>
-  </si>
-  <si>
-    <t>Alamat Sekarang</t>
-  </si>
-  <si>
-    <t>Perguruan Tinggi</t>
-  </si>
-  <si>
-    <t>Semester</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>IPK</t>
   </si>
   <si>
-    <t>Prestasi</t>
-  </si>
-  <si>
-    <t>Alasan</t>
-  </si>
-  <si>
-    <t>Nama Bank</t>
-  </si>
-  <si>
-    <t>No Rekening</t>
-  </si>
-  <si>
-    <t>Tanggal Daftar</t>
-  </si>
-  <si>
-    <t>Status Beasiswa</t>
+    <t>SEKOLAH TINGGI MANAJEMEN INFORMATIKA DAN KOMPUTER</t>
+  </si>
+  <si>
+    <t>AMIKOM YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>Jalan Ring Road Utara, Depok, Sleman Yogyakarta</t>
+  </si>
+  <si>
+    <t>LAPORAN PENDAFTARAN BEASISWA PERIODE INI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>JENIS BEASISWA</t>
+  </si>
+  <si>
+    <t>NAMA PENDAFTAR</t>
+  </si>
+  <si>
+    <t>JURUSAN</t>
+  </si>
+  <si>
+    <t>JENJANG</t>
+  </si>
+  <si>
+    <t>ALAMAT SEKARANG</t>
+  </si>
+  <si>
+    <t>PERGURUAN TINGGI</t>
+  </si>
+  <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
+    <t>PRESTASI</t>
+  </si>
+  <si>
+    <t>ALASAN</t>
+  </si>
+  <si>
+    <t>NAMA BANK</t>
+  </si>
+  <si>
+    <t>NO REKENING</t>
+  </si>
+  <si>
+    <t>TANGGAL DAFTAR</t>
+  </si>
+  <si>
+    <t>STATUS BEASISWA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -94,14 +114,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -113,9 +165,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -128,9 +178,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -143,9 +191,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -155,18 +201,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -245,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,116 +524,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="J8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A6:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
